--- a/dice_cov_fitness.xlsx
+++ b/dice_cov_fitness.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon Tannenbaum\Documents\Texas A&amp;M\Aero 614 - Human Performance in Aerospace Environments\DICE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DC35D2-9B62-4413-BA7D-075658DA2F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A542C9-DEAE-49F7-8075-BDACED25CF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="-83" windowWidth="28965" windowHeight="15766" activeTab="9" xr2:uid="{480C51D9-5374-4262-BBEB-32D406A0B3EF}"/>
+    <workbookView xWindow="38270" yWindow="70" windowWidth="38660" windowHeight="21260" activeTab="2" xr2:uid="{480C51D9-5374-4262-BBEB-32D406A0B3EF}"/>
   </bookViews>
   <sheets>
     <sheet name="pos_impact_week_ny" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="time_mpa_mm" sheetId="8" r:id="rId7"/>
     <sheet name="walk_7days_mm" sheetId="9" r:id="rId8"/>
     <sheet name="time_walk_mm" sheetId="10" r:id="rId9"/>
-    <sheet name="Sheet11" sheetId="11" r:id="rId10"/>
+    <sheet name="sitting_7days_mm" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1075,7 +1075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{163381E3-7F6B-4121-9906-3C288FB312B8}">
   <dimension ref="A2:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
@@ -1705,7 +1705,7 @@
   <dimension ref="A2:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2257,8 +2257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4826B0D5-E81F-4E47-8EC8-CCC6D08F1986}">
   <dimension ref="A2:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:L20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S47" sqref="S47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/dice_cov_fitness.xlsx
+++ b/dice_cov_fitness.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leont\Documents\Human Performance in Aerospace Environments\DICE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC1DCDB-CA5B-49FE-BC08-20F7569C3BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CF01FE-74B4-437F-B5E4-8BD68B4B4D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="8540" yWindow="5940" windowWidth="28800" windowHeight="15460" firstSheet="7" activeTab="9" xr2:uid="{480C51D9-5374-4262-BBEB-32D406A0B3EF}"/>
+    <workbookView xWindow="15930" yWindow="4980" windowWidth="28800" windowHeight="15460" firstSheet="7" activeTab="9" xr2:uid="{480C51D9-5374-4262-BBEB-32D406A0B3EF}"/>
   </bookViews>
   <sheets>
     <sheet name="pos_impact_week_ny" sheetId="2" r:id="rId1"/>
@@ -212,6 +212,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC00CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -257,9 +262,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>During the last 7 days, on how many days did you do vigorous physical activities like heavy lifting, digging, aerobics, or fast bicycling?</a:t>
+              <a:rPr lang="en-US" sz="2400" b="1"/>
+              <a:t>Days of vigorous</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
+              <a:t> physical activity over the last 7 days</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2400" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -315,7 +325,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="CC00CC"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -451,7 +461,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -611,7 +621,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -637,6 +647,7 @@
         <c:axId val="1951827791"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -654,6 +665,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" b="1"/>
+                  <a:t>Days</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -670,7 +736,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -697,37 +763,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1355,9 +1390,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>How much time did you usually spend doing vigorous physical activities on one of those days? Please answer: _____ hours per day and/or _____ minutes per day</a:t>
+              <a:rPr lang="en-US" sz="2400" b="1"/>
+              <a:t>Time</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
+              <a:t> spend engaging in vigorous physical activity</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2400" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1413,7 +1453,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="CC00CC"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1549,7 +1589,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1709,7 +1749,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1735,6 +1775,7 @@
         <c:axId val="1861308895"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1752,6 +1793,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" b="1"/>
+                  <a:t>Time - Minutes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1768,7 +1864,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1795,37 +1891,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1904,9 +1969,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>How much time did you usually spend doing vigorous physical activities on one of those days? Please answer: _____ hours per day and/or _____ minutes per day</a:t>
+              <a:rPr lang="en-US" sz="2400" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Time spend engaging in vigorous physical activity</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" sz="1800">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1962,7 +2032,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2098,7 +2168,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2258,7 +2328,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2301,6 +2371,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" b="1"/>
+                  <a:t>Time - Minutes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2317,7 +2442,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2344,37 +2469,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3002,9 +3096,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>During the last 7 days, on how many days did you do moderate physical activities like carrying light loads, bicycling at a regular pace, or doubles tennis? Do not include walking.</a:t>
+              <a:rPr lang="en-US" sz="2400" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Days of moderate physical activity over the last 7 days</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" sz="1800">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3060,7 +3159,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3196,7 +3295,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3356,7 +3455,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3399,6 +3498,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" b="1"/>
+                  <a:t>Days</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3415,7 +3570,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4100,9 +4255,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>During the last 7 days, how much time per did you spend sitting (in average)? Please answer: _____ hours per day and/or _____ minutes per day</a:t>
+              <a:rPr lang="en-US" sz="2400" b="1"/>
+              <a:t>Time</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
+              <a:t> spent sitting per day</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2400" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4158,7 +4318,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -4294,7 +4454,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -4454,7 +4614,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4497,6 +4657,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" b="1"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" b="1" baseline="0"/>
+                  <a:t> - minutes</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="2000" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4513,7 +4733,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -9068,15 +9288,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>346075</xdr:colOff>
+      <xdr:colOff>346074</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>41275</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>412749</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9103,16 +9323,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>206375</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>511175</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9145,15 +9365,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>358775</xdr:colOff>
+      <xdr:colOff>358774</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>53975</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>6349</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9181,15 +9401,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>9524</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>387349</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9258,15 +9478,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:colOff>314324</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>241299</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9335,15 +9555,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>73025</xdr:colOff>
+      <xdr:colOff>73024</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>377825</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10223,8 +10443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{163381E3-7F6B-4121-9906-3C288FB312B8}">
   <dimension ref="A2:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11959,7 +12179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B56C94E7-E91B-407B-82C1-D18C35591E17}">
   <dimension ref="A2:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -12589,7 +12809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE94757-5A10-46C1-8D66-39FCF05BCD71}">
   <dimension ref="A2:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
